--- a/biology/Zoologie/Euryglottis/Euryglottis.xlsx
+++ b/biology/Zoologie/Euryglottis/Euryglottis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryglottis est un genre de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae et de la tribu des Sphingini.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Euryglottis ont des similitudes avec celles du genre Manduca, mais elles se distinguent par leurs antennes beaucoup plus épaisses. La tête, le thorax et l'abdomen, ainsi que les tibias, toutes les jambes sont densément couverts de poils laineux. Cette caractéristique donne à penser que ces animaux sont adaptés à une vie dans les zones de montagne.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est néo-tropical[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est néo-tropical.
 </t>
         </is>
       </c>
@@ -573,11 +589,47 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Euryglottis a été décrit par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1875[2].
-Liste d'espèces
-D'après Ian J. Kitching, Jean-Marie Cadiou [3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Euryglottis a été décrit par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1875.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euryglottis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euryglottis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Ian J. Kitching, Jean-Marie Cadiou 
 Euryglottis albostigmata - Rothschild 1895
 Euryglottis aper - (Walker 1856)
 Euryglottis davidianus - Dognin 1891
